--- a/experiment_results/best_case/Elevator/3wise/0.8_best_case.xlsx
+++ b/experiment_results/best_case/Elevator/3wise/0.8_best_case.xlsx
@@ -543,7 +543,7 @@
         <v>152</v>
       </c>
       <c r="G4">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -575,7 +575,7 @@
         <v>312</v>
       </c>
       <c r="G5">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -607,7 +607,7 @@
         <v>149</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -639,7 +639,7 @@
         <v>152</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -671,7 +671,7 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -735,7 +735,7 @@
         <v>312</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -767,7 +767,7 @@
         <v>149</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -831,7 +831,7 @@
         <v>312</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -863,7 +863,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -895,7 +895,7 @@
         <v>149</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -927,7 +927,7 @@
         <v>152</v>
       </c>
       <c r="G16">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -1068,7 +1068,7 @@
         <v>152</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -1100,7 +1100,7 @@
         <v>312</v>
       </c>
       <c r="G5">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -1196,7 +1196,7 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1260,7 +1260,7 @@
         <v>312</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1356,7 +1356,7 @@
         <v>312</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -1388,7 +1388,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -1452,7 +1452,7 @@
         <v>152</v>
       </c>
       <c r="G16">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -1593,7 +1593,7 @@
         <v>152</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -1721,7 +1721,7 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1785,7 +1785,7 @@
         <v>312</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1977,7 +1977,7 @@
         <v>152</v>
       </c>
       <c r="G16">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -2118,7 +2118,7 @@
         <v>152</v>
       </c>
       <c r="G4">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -2150,7 +2150,7 @@
         <v>312</v>
       </c>
       <c r="G5">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2182,7 +2182,7 @@
         <v>149</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -2214,7 +2214,7 @@
         <v>152</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -2246,7 +2246,7 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -2310,7 +2310,7 @@
         <v>312</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2342,7 +2342,7 @@
         <v>149</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -2406,7 +2406,7 @@
         <v>312</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -2438,7 +2438,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -2470,7 +2470,7 @@
         <v>149</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -2502,7 +2502,7 @@
         <v>152</v>
       </c>
       <c r="G16">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -2611,7 +2611,7 @@
         <v>312</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -2643,7 +2643,7 @@
         <v>152</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -2675,7 +2675,7 @@
         <v>312</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2771,7 +2771,7 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -2835,7 +2835,7 @@
         <v>312</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2963,7 +2963,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -3027,7 +3027,7 @@
         <v>152</v>
       </c>
       <c r="G16">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>449</v>
